--- a/Testdata/Non_Oncology/Templates/ManagePopulations/EP_TimeToEvent/LIVEHTA Automation-Test_Non_Oncology_Pop_TimeToEvent-Master Template.xlsx
+++ b/Testdata/Non_Oncology/Templates/ManagePopulations/EP_TimeToEvent/LIVEHTA Automation-Test_Non_Oncology_Pop_TimeToEvent-Master Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\Templates\Non-Oncology\Test Environment\Test_Non_Oncology_Pop_TimeToEvent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB82DE6-9053-458E-935B-115BE287E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA9430-9AEE-4215-AA41-B05D1A15F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,12 +925,6 @@
   </si>
   <si>
     <t>Inclusion &amp; Exclusion Criteria</t>
-  </si>
-  <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
-    <t>Prior Therapy Group</t>
   </si>
   <si>
     <t>Number of Arms</t>
@@ -1764,6 +1758,12 @@
   </si>
   <si>
     <t>Choose among:IQR, 95% CI, Range</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -2751,9 +2751,9 @@
   </sheetPr>
   <dimension ref="A1:HV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CV5" sqref="CV5:CX8"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -3771,10 +3771,10 @@
         <v>93</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AO4" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AP4" s="44" t="s">
         <v>94</v>
@@ -4391,1888 +4391,1888 @@
         <v>295</v>
       </c>
       <c r="P5" s="95" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" s="95" t="s">
+        <v>542</v>
+      </c>
+      <c r="R5" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="S5" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="R5" s="95" t="s">
+      <c r="T5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK5" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="AP5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AR5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AW5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AY5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="BA5" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="BB5" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF5" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AZ5" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="BA5" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="BC5" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BF5" s="95" t="s">
+      <c r="BI5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="BG5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="BH5" s="5" t="s">
+      <c r="BJ5" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="BI5" s="5" t="s">
+      <c r="BK5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="BJ5" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="BL5" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BM5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BN5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="BO5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BP5" s="5" t="s">
+      <c r="BR5" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BS5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="BR5" s="5" t="s">
+      <c r="BT5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="BU5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="BS5" s="6" t="s">
+      <c r="BV5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="BT5" s="6" t="s">
+      <c r="BW5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="BU5" s="5" t="s">
+      <c r="BX5" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="BV5" s="6" t="s">
+      <c r="BY5" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="BZ5" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="CA5" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="CB5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="CC5" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BW5" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="BX5" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="BY5" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="BZ5" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="CA5" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="CB5" s="5" t="s">
+      <c r="CE5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="CC5" s="95" t="s">
+      <c r="CF5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="CD5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="CE5" s="5" t="s">
+      <c r="CG5" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CH5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="CG5" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="CH5" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="CI5" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="CJ5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="CK5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="CM5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="CL5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="CM5" s="5" t="s">
+      <c r="CO5" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="CN5" s="5" t="s">
+      <c r="CP5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="CO5" s="5" t="s">
+      <c r="CQ5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="CR5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="CP5" s="6" t="s">
+      <c r="CS5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="CQ5" s="6" t="s">
+      <c r="CT5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="CR5" s="5" t="s">
+      <c r="CU5" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="CS5" s="6" t="s">
+      <c r="CV5" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="CW5" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="CX5" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="CY5" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="CZ5" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="DA5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="CT5" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="CU5" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV5" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="CW5" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="CX5" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="CY5" s="5" t="s">
+      <c r="DB5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="CZ5" s="95" t="s">
+      <c r="DC5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="DA5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="DB5" s="5" t="s">
+      <c r="DD5" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="DC5" s="5" t="s">
+      <c r="DE5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="DD5" s="95" t="s">
+      <c r="DF5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="DG5" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="DE5" s="6" t="s">
+      <c r="DH5" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="DI5" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="DF5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG5" s="6" t="s">
+      <c r="DJ5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="DH5" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="DI5" s="5" t="s">
+      <c r="DK5" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="DJ5" s="5" t="s">
+      <c r="DL5" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="DK5" s="95" t="s">
+      <c r="DM5" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="DL5" s="95" t="s">
+      <c r="DN5" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="DM5" s="95" t="s">
+      <c r="DO5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="DP5" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="DN5" s="6" t="s">
+      <c r="DQ5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="DO5" s="6" t="s">
+      <c r="DR5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="DS5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="DT5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="DU5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="DV5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="DW5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="DX5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="DY5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="DZ5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="EA5" s="95" t="s">
+        <v>346</v>
+      </c>
+      <c r="EB5" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="EC5" s="95" t="s">
+        <v>348</v>
+      </c>
+      <c r="ED5" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="EE5" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="EF5" s="95" t="s">
+        <v>351</v>
+      </c>
+      <c r="EG5" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="EH5" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="EI5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="EJ5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="EK5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="EL5" s="95" t="s">
+        <v>356</v>
+      </c>
+      <c r="EM5" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="EN5" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="EO5" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="EP5" s="95" t="s">
+        <v>360</v>
+      </c>
+      <c r="EQ5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="ER5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="ES5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="ET5" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="EU5" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="EV5" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="EW5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="EX5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="EY5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="EZ5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="FA5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="FB5" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="FC5" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="FD5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="FE5" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="FF5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="FG5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="FH5" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="FI5" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="FJ5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="FK5" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="FL5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="FM5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="FN5" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="FO5" s="95" t="s">
+        <v>360</v>
+      </c>
+      <c r="FP5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="FQ5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FR5" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="FS5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT5" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU5" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FV5" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="FX5" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="FY5" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="FZ5" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA5" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="GB5" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="GC5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="GD5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="DP5" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="DQ5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="DR5" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DS5" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="DT5" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="DU5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="DV5" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="DW5" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="DX5" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="DY5" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="DZ5" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="EA5" s="95" t="s">
-        <v>348</v>
-      </c>
-      <c r="EB5" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="EC5" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="ED5" s="95" t="s">
-        <v>351</v>
-      </c>
-      <c r="EE5" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="EF5" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="EG5" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="EH5" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="EI5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="EJ5" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="EK5" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="EL5" s="95" t="s">
-        <v>358</v>
-      </c>
-      <c r="EM5" s="95" t="s">
-        <v>359</v>
-      </c>
-      <c r="EN5" s="95" t="s">
-        <v>360</v>
-      </c>
-      <c r="EO5" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="EP5" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="EQ5" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="ER5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="ES5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="ET5" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="EU5" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="EV5" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="EW5" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="EX5" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="EY5" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="EZ5" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="FA5" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="FB5" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="FC5" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="FD5" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="FE5" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="FF5" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="FG5" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="FH5" s="6" t="s">
+      <c r="GE5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="GF5" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="GG5" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="GH5" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="FI5" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="FJ5" s="5" t="s">
+      <c r="GI5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="FK5" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="FL5" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="FN5" s="95" t="s">
-        <v>360</v>
-      </c>
-      <c r="FO5" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="FP5" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="FQ5" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="FR5" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="FT5" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="FU5" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="FV5" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="FW5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX5" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="FY5" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="FZ5" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="GA5" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="GB5" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="GC5" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="GD5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="GE5" s="5" t="s">
+      <c r="GJ5" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="GF5" s="6" t="s">
+      <c r="GK5" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="GG5" s="6" t="s">
+      <c r="GL5" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="GH5" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="GI5" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ5" s="5" t="s">
+      <c r="GM5" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="GK5" s="6" t="s">
+      <c r="GN5" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="GL5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="GM5" s="95" t="s">
+      <c r="GO5" s="95" t="s">
         <v>395</v>
       </c>
-      <c r="GN5" s="95" t="s">
+      <c r="GP5" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="GO5" s="95" t="s">
+      <c r="GQ5" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="GP5" s="95" t="s">
+      <c r="GR5" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="GQ5" s="95" t="s">
+      <c r="GS5" s="95" t="s">
         <v>399</v>
       </c>
-      <c r="GR5" s="95" t="s">
+      <c r="GT5" s="95" t="s">
         <v>400</v>
       </c>
-      <c r="GS5" s="95" t="s">
+      <c r="GU5" s="95" t="s">
         <v>401</v>
       </c>
-      <c r="GT5" s="95" t="s">
+      <c r="GV5" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="GU5" s="95" t="s">
+      <c r="GW5" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="GV5" s="95" t="s">
+      <c r="GX5" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="GW5" s="95" t="s">
+      <c r="GY5" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="GX5" s="95" t="s">
+      <c r="GZ5" s="95" t="s">
         <v>406</v>
       </c>
-      <c r="GY5" s="95" t="s">
+      <c r="HA5" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="GZ5" s="95" t="s">
+      <c r="HB5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="HC5" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="HA5" s="6" t="s">
+      <c r="HD5" s="95" t="s">
         <v>409</v>
       </c>
-      <c r="HB5" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="HC5" s="95" t="s">
+      <c r="HE5" s="95" t="s">
         <v>410</v>
       </c>
-      <c r="HD5" s="95" t="s">
+      <c r="HF5" s="95" t="s">
         <v>411</v>
       </c>
-      <c r="HE5" s="95" t="s">
+      <c r="HG5" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="HF5" s="95" t="s">
+      <c r="HH5" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="HI5" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="HG5" s="6" t="s">
+      <c r="HJ5" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="HK5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="HH5" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="HI5" s="6" t="s">
+      <c r="HL5" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="HJ5" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="HK5" s="5" t="s">
+      <c r="HM5" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="HL5" s="5" t="s">
+      <c r="HN5" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="HO5" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="HM5" s="6" t="s">
+      <c r="HP5" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="HN5" s="6" t="s">
+      <c r="HQ5" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="HO5" s="5" t="s">
+      <c r="HR5" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="HP5" s="6" t="s">
+      <c r="HS5" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="HQ5" s="6" t="s">
+      <c r="HT5" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="HR5" s="5" t="s">
+      <c r="HU5" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="HS5" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="HT5" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="HU5" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="HV5" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:230" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AF6" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AG6" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AH6" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AI6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP6" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AI6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS6" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AT6" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="AR6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AU6" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AV6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX6" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AY6" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AZ6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD6" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="AW6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX6" s="9" t="s">
+      <c r="BR6" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU6" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BV6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="BW6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="BX6" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="BY6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="BZ6" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="AZ6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="BA6" s="9" t="s">
+      <c r="CA6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="BB6" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="BC6" s="9" t="s">
+      <c r="CB6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="CC6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="CD6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="CE6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="CF6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="CG6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="CH6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="CI6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="CJ6" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="CK6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="CL6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="CM6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="CN6" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="CO6" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="CP6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="CQ6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="CR6" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="CS6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="CT6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="CU6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="CV6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="CW6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="CX6" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="CY6" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="CZ6" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="DA6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="DB6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="DC6" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="DD6" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="DE6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="DF6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="DG6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DH6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="DI6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="DJ6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="BK6" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="BL6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="BM6" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="BN6" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="BO6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="BP6" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="BQ6" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="BR6" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="BS6" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="BT6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="BU6" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="BV6" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="BW6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="BX6" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="BY6" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="BZ6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="CA6" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="CB6" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="CC6" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="CD6" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="CE6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="CF6" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="CG6" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="CH6" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="CI6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="CJ6" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="CK6" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="CL6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="CM6" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="CN6" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="CO6" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="CP6" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="CQ6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="CR6" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="CS6" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="CT6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="CU6" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="CV6" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="CW6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="CX6" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="CY6" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="CZ6" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="DA6" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="DB6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="DC6" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="DD6" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="DE6" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="DF6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="DG6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="DH6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="DI6" s="9" t="s">
+      <c r="DK6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="DJ6" s="9" t="s">
+      <c r="DL6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="DK6" s="9" t="s">
+      <c r="DM6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="DL6" s="9" t="s">
+      <c r="DN6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DO6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="DP6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="DM6" s="9" t="s">
+      <c r="DQ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DR6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DS6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DT6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DU6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DV6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="DW6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DX6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DY6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="DZ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EA6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EB6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EC6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="ED6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EE6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EF6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EG6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="EH6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="EI6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EJ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EK6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EL6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EM6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EN6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EO6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EP6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EQ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="ER6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="ES6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="ET6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="EU6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="EV6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="DN6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="DO6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="DP6" s="9" t="s">
+      <c r="EW6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="EX6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="EY6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="EZ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FA6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FB6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FC6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FD6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FE6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FF6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FG6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FH6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="FI6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="FJ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FK6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FL6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FN6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FO6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FP6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FQ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FR6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FS6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FT6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="FU6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="FV6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FW6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FX6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FY6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="FZ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GA6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="GB6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="GC6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GD6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GE6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GF6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="GG6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="GH6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GI6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GJ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GK6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="GL6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="GM6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GN6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GO6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GP6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GQ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GR6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GS6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GT6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GU6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GV6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GW6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GX6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GY6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="GZ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="HA6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="HB6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="HC6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="HD6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="HE6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="HF6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="HG6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="HH6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="HI6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="HJ6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="HK6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="DQ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DR6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DS6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DT6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DU6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DV6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="DW6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="DX6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DY6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="DZ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EA6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EB6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EC6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="ED6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EE6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EF6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EG6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="EH6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="EI6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EJ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EK6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EL6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EM6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EN6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EO6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EP6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EQ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="ER6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="ES6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="ET6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="EU6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="EV6" s="9" t="s">
+      <c r="HL6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="EW6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="EX6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="EY6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="EZ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FA6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FB6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FC6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FD6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FE6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FF6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FG6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FH6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="FI6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="FJ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FK6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FL6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FM6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FN6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FO6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FP6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FQ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FR6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FS6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FT6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="FU6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="FV6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FW6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FX6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FY6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="FZ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GA6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="GB6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="GC6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GD6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GE6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GF6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="GG6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="GH6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GI6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GJ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GK6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="GL6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="GM6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GN6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GO6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GP6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GQ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GR6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GS6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GT6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GU6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GV6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GW6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GX6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GY6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="GZ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="HA6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HB6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="HC6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="HD6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="HE6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="HF6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="HG6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HH6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="HI6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HJ6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="HK6" s="9" t="s">
+      <c r="HM6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="HN6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="HO6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="HL6" s="9" t="s">
+      <c r="HP6" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="HQ6" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="HR6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="HM6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HN6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="HO6" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="HP6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HQ6" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="HR6" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="HS6" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="HT6" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="HU6" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="HV6" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:230" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="N7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="S7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="V7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="Z7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AL7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AN7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU7" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AV7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB7" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="BF7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BG7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BH7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BI7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BJ7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="BK7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BL7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BM7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BN7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BO7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BP7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BQ7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="BR7" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="BS7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BT7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BU7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BV7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BX7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BY7" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="BZ7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CA7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="CC7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="CD7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="CF7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="CG7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="CH7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CI7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CJ7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CK7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CL7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CM7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CN7" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="CO7" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AK7" s="9" t="s">
+      <c r="CP7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CR7" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="AL7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM7" s="10" t="s">
+      <c r="CS7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CT7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CU7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CV7" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="CW7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CX7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CY7" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="CZ7" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="AY7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BA7" s="10" t="s">
+      <c r="DA7" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="BB7" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="BC7" s="10" t="s">
+      <c r="DB7" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="BD7" s="10" t="s">
+      <c r="DC7" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="DD7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="DE7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="DF7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="DG7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="DH7" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="DI7" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="DJ7" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="BF7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="BG7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="BH7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="BI7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="BJ7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="BK7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BL7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BM7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BN7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BO7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BP7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BQ7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="BR7" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="BS7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BT7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="BV7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BW7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="BX7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="BY7" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="BZ7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CA7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CB7" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="CC7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="CD7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="CE7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="CF7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="CG7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="CH7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CI7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CJ7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CK7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CL7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CM7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CN7" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="CO7" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="CP7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CQ7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CR7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CS7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CT7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="CU7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CV7" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="CW7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CX7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CY7" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="CZ7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="DA7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="DB7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="DC7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="DD7" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="DE7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="DF7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="DG7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="DH7" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="DI7" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="DJ7" s="10" t="s">
-        <v>506</v>
-      </c>
       <c r="DK7" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="DL7" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="DM7" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="DN7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DO7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DP7" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DQ7" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DR7" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DS7" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DT7" s="14"/>
       <c r="DU7" s="14"/>
       <c r="DV7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DW7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DX7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="DY7" s="9"/>
       <c r="DZ7" s="9"/>
       <c r="EA7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EB7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EC7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="ED7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EE7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EF7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EG7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EH7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EI7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EJ7" s="10"/>
       <c r="EK7" s="10"/>
       <c r="EL7" s="10"/>
       <c r="EM7" s="10"/>
       <c r="EN7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EO7" s="9"/>
       <c r="EP7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EQ7" s="9"/>
       <c r="ER7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="ES7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="ET7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EU7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EV7" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="EW7" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="EX7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EY7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="EZ7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FA7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FB7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FC7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FD7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FE7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FF7" s="13"/>
       <c r="FG7" s="14"/>
       <c r="FH7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FI7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FJ7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FK7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FL7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FM7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FN7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FO7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FP7" s="13"/>
       <c r="FQ7" s="13"/>
       <c r="FR7" s="13"/>
       <c r="FS7" s="13"/>
       <c r="FT7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FU7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FV7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FW7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FX7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FY7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="FZ7" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GA7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GB7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GC7" s="10"/>
       <c r="GD7" s="10"/>
       <c r="GE7" s="10"/>
       <c r="GF7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GG7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GH7" s="10"/>
       <c r="GI7" s="10"/>
       <c r="GJ7" s="10"/>
       <c r="GK7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GL7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="GM7" s="10"/>
       <c r="GN7" s="10"/>
       <c r="GO7" s="10"/>
       <c r="GP7" s="10"/>
       <c r="GQ7" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="GR7" s="10"/>
       <c r="GS7" s="10"/>
@@ -6284,614 +6284,614 @@
       <c r="GY7" s="10"/>
       <c r="GZ7" s="10"/>
       <c r="HA7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HB7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HC7" s="10"/>
       <c r="HD7" s="10"/>
       <c r="HE7" s="10"/>
       <c r="HF7" s="10"/>
       <c r="HG7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HH7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HI7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HJ7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HK7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HL7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HM7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HN7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HO7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HP7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HQ7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HR7" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HS7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HT7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HU7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="HV7" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:230" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="K8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="M8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="U8" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="V8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Y8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI8" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="AK8" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AP8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="AR8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="AU8" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="AV8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="AW8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AX8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BB8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BD8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BE8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BF8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="BH8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="BI8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="BJ8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="BK8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BN8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BO8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BP8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BQ8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BR8" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="BS8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BU8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BW8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BY8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="BZ8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CA8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CD8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CE8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CF8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CG8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="CH8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CI8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CJ8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CK8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CL8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CM8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="CN8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CO8" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="AA8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="CP8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="CQ8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="CR8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CS8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="CT8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="CU8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CV8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CW8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="CY8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AN8" s="10" t="s">
+      <c r="CZ8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="DA8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="DB8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="DD8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="DE8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AO8" s="9" t="s">
+      <c r="DF8" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="AP8" s="10" t="s">
+      <c r="DG8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="DH8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI8" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="DJ8" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="DK8" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="DL8" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="DM8" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="AT8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="AX8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="AY8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BB8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BC8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BD8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BE8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BF8" s="10" t="s">
+      <c r="DN8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="DP8" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="BG8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="BH8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="BI8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="BJ8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="BK8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BL8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BM8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BN8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BO8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BP8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BQ8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BR8" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="BS8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BT8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BU8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BW8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="BX8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BY8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="BZ8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CA8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CB8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CC8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="CD8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="CE8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="CF8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="CG8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="CH8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CI8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CJ8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CK8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CL8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CM8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CN8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CO8" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="CP8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CQ8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CR8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CS8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CT8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CU8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CV8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CW8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CX8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="CY8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="CZ8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="DA8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="DB8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="DC8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="DD8" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="DE8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DF8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DG8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DH8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DI8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="DJ8" s="10" t="s">
+      <c r="DQ8" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="DK8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="DL8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="DM8" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="DN8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DO8" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="DP8" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="DQ8" s="14" t="s">
-        <v>528</v>
-      </c>
       <c r="DR8" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="DS8" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="DT8" s="14"/>
       <c r="DU8" s="14"/>
       <c r="DV8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="DW8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="DX8" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="DY8" s="9"/>
       <c r="DZ8" s="9"/>
       <c r="EA8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EB8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EC8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="ED8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EE8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EF8" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EG8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EH8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EI8" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EJ8" s="10"/>
       <c r="EK8" s="10"/>
       <c r="EL8" s="10"/>
       <c r="EM8" s="10"/>
       <c r="EN8" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EO8" s="9"/>
       <c r="EP8" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EQ8" s="9"/>
       <c r="ER8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="ES8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="ET8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EU8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EV8" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EW8" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="EX8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EY8" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="EZ8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FA8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FB8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FC8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FD8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FE8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FF8" s="13"/>
       <c r="FG8" s="13"/>
       <c r="FH8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FI8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FJ8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FK8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FL8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FM8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FN8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FO8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FP8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FQ8" s="13"/>
       <c r="FR8" s="13"/>
       <c r="FS8" s="13"/>
       <c r="FT8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FU8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FV8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FW8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FX8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FY8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="FZ8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="GA8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="GB8" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="GC8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GD8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GE8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GF8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GG8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GH8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GI8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GJ8" s="13"/>
       <c r="GK8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GL8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="GM8" s="13"/>
       <c r="GN8" s="13"/>
@@ -6908,62 +6908,62 @@
       <c r="GY8" s="13"/>
       <c r="GZ8" s="13"/>
       <c r="HA8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HB8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HC8" s="13"/>
       <c r="HD8" s="13"/>
       <c r="HE8" s="13"/>
       <c r="HF8" s="13"/>
       <c r="HG8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HH8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HI8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HJ8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="HK8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HL8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HM8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HN8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HO8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HP8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HQ8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HR8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HS8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HT8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HU8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="HV8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -7212,15 +7212,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
@@ -7236,6 +7227,15 @@
     <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7258,14 +7258,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7274,4 +7266,12 @@
     <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>